--- a/Resume-Letter-etc/GSOC_/GSOC_Frequency.xlsx
+++ b/Resume-Letter-etc/GSOC_/GSOC_Frequency.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akhil Sanker\Desktop\GSOC_\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\working repos\Resum\LOR-RESUME-TEMPLATES\Resume-Letter-etc\GSOC_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEA3068-77DC-45E1-B5C0-AF235C31428D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4BB9C0-5C52-4E49-96DB-C32A93ACCE89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4575" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{B8BF3A88-0BFE-4685-92D6-09BC934ABF1B}"/>
+    <workbookView xWindow="28680" yWindow="4575" windowWidth="19800" windowHeight="11760" activeTab="3" xr2:uid="{B8BF3A88-0BFE-4685-92D6-09BC934ABF1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t xml:space="preserve">Python </t>
   </si>
@@ -284,13 +284,43 @@
   </si>
   <si>
     <t>https://www.python.org/</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Better</t>
+  </si>
+  <si>
+    <t>Okayish</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>no scope</t>
+  </si>
+  <si>
+    <t>purplee</t>
+  </si>
+  <si>
+    <t>easiest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,6 +387,131 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -380,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -413,6 +568,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -729,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E8EA8B-A617-48D2-9F88-1AB74866EB74}">
-  <dimension ref="B1:J79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,22 +975,26 @@
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="26" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="16" t="s">
         <v>4</v>
       </c>
     </row>
@@ -837,51 +1038,57 @@
       </c>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B17" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B24" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>11</v>
       </c>
@@ -889,15 +1096,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B30" s="6" t="s">
         <v>37</v>
       </c>
@@ -905,12 +1112,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
@@ -1120,27 +1327,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F3D642-69A1-4FBD-B6AC-A21B01B4464F}">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89875D96-28D1-470D-A19D-7338D57213C2}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>49</v>
       </c>
@@ -1148,10 +1401,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>50</v>
       </c>
@@ -1159,28 +1412,34 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>54</v>
       </c>
@@ -1188,15 +1447,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>56</v>
       </c>
@@ -1204,7 +1463,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -1224,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE30639-F583-4E67-923C-8D081881C645}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,53 +1501,69 @@
       <c r="A2" s="9"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="20" t="s">
         <v>59</v>
       </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
       <c r="D3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="22" t="s">
         <v>60</v>
       </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="27" t="s">
         <v>61</v>
       </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="28" t="s">
         <v>62</v>
       </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="19" t="s">
         <v>64</v>
       </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="20" t="s">
         <v>65</v>
       </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="22" t="s">
         <v>66</v>
       </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
@@ -1310,26 +1585,30 @@
       <c r="A15" s="10"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="20" t="s">
         <v>69</v>
       </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>70</v>
       </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" display="https://julialang.org/" xr:uid="{F543FF52-7F09-4EFA-B8E9-92D052C20913}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{E15DABB3-992C-44B3-9640-0917F71BBCA3}"/>
-    <hyperlink ref="A9" r:id="rId3" display="http://orcasound.net/" xr:uid="{FB9809E6-197E-4515-A4C3-B533AAED1D18}"/>
-    <hyperlink ref="A11" r:id="rId4" display="http://kubeflow.org/" xr:uid="{2159CD04-48EB-45CB-9C40-6AEF8568143F}"/>
-    <hyperlink ref="A14" r:id="rId5" xr:uid="{E764016A-83F2-493A-A547-EEF3FA5D1BD6}"/>
-    <hyperlink ref="A17" r:id="rId6" xr:uid="{017A7841-E290-4CB7-8B69-BAEBEB586FD2}"/>
+    <hyperlink ref="A11" r:id="rId3" display="http://kubeflow.org/" xr:uid="{2159CD04-48EB-45CB-9C40-6AEF8568143F}"/>
+    <hyperlink ref="A14" r:id="rId4" xr:uid="{E764016A-83F2-493A-A547-EEF3FA5D1BD6}"/>
+    <hyperlink ref="A17" r:id="rId5" xr:uid="{017A7841-E290-4CB7-8B69-BAEBEB586FD2}"/>
+    <hyperlink ref="A9" r:id="rId6" display="http://orcasound.net/" xr:uid="{FB9809E6-197E-4515-A4C3-B533AAED1D18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1340,7 +1619,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1370,17 +1649,21 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="31" t="s">
         <v>75</v>
       </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="32" t="s">
         <v>76</v>
       </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
